--- a/Transition Table.xlsx
+++ b/Transition Table.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FFF009-1A46-4657-8479-6AE4526AB935}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Inputs</t>
   </si>
@@ -151,12 +152,6 @@
   </si>
   <si>
     <t>States</t>
-  </si>
-  <si>
-    <t>Add Record if currentState != fmrState</t>
-  </si>
-  <si>
-    <t>Add Record</t>
   </si>
   <si>
     <t>\t</t>
@@ -165,7 +160,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -520,21 +515,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="6.5703125" customWidth="1"/>
-    <col min="27" max="27" width="40.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="6.5546875" customWidth="1"/>
+    <col min="27" max="27" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -542,7 +537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -615,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -698,7 +693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -778,7 +773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -858,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
@@ -938,7 +933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -1018,7 +1013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -1098,7 +1093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -1178,7 +1173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -1258,7 +1253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -1338,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1417,11 +1412,8 @@
       <c r="Z12" s="4">
         <v>10</v>
       </c>
-      <c r="AA12" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1500,11 +1492,8 @@
       <c r="Z13" s="6">
         <v>1</v>
       </c>
-      <c r="AA13" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1583,11 +1572,8 @@
       <c r="Z14" s="4">
         <v>12</v>
       </c>
-      <c r="AA14" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -1666,11 +1652,8 @@
       <c r="Z15" s="6">
         <v>1</v>
       </c>
-      <c r="AA15" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1749,11 +1732,8 @@
       <c r="Z16" s="4">
         <v>14</v>
       </c>
-      <c r="AA16" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1832,11 +1812,8 @@
       <c r="Z17" s="6">
         <v>1</v>
       </c>
-      <c r="AA17" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -1916,7 +1893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -1996,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -2076,7 +2053,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>

--- a/Transition Table.xlsx
+++ b/Transition Table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FFF009-1A46-4657-8479-6AE4526AB935}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0832B2D-C789-4FC8-B116-837034437D0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="48">
   <si>
     <t>Inputs</t>
   </si>
@@ -155,13 +155,22 @@
   </si>
   <si>
     <t>\t</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>In Comment</t>
+  </si>
+  <si>
+    <t>End Comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +181,14 @@
     <font>
       <b/>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -199,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -222,11 +239,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -236,6 +301,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,7 +599,7 @@
     <col min="27" max="27" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -537,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -612,8 +682,11 @@
       <c r="Z2" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="AA2" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -692,8 +765,11 @@
       <c r="Z3" s="6">
         <v>1</v>
       </c>
+      <c r="AA3" s="6">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -772,8 +848,11 @@
       <c r="Z4" s="4">
         <v>3</v>
       </c>
+      <c r="AA4" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -852,8 +931,11 @@
       <c r="Z5" s="6">
         <v>1</v>
       </c>
+      <c r="AA5" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
@@ -932,8 +1014,11 @@
       <c r="Z6" s="4">
         <v>5</v>
       </c>
+      <c r="AA6" s="4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -1012,8 +1097,11 @@
       <c r="Z7" s="6">
         <v>1</v>
       </c>
+      <c r="AA7" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -1092,8 +1180,11 @@
       <c r="Z8" s="4">
         <v>7</v>
       </c>
+      <c r="AA8" s="4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -1172,8 +1263,11 @@
       <c r="Z9" s="6">
         <v>1</v>
       </c>
+      <c r="AA9" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -1252,8 +1346,11 @@
       <c r="Z10" s="4">
         <v>9</v>
       </c>
+      <c r="AA10" s="4">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -1332,8 +1429,11 @@
       <c r="Z11" s="6">
         <v>1</v>
       </c>
+      <c r="AA11" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1412,8 +1512,11 @@
       <c r="Z12" s="4">
         <v>10</v>
       </c>
+      <c r="AA12" s="4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1492,8 +1595,11 @@
       <c r="Z13" s="6">
         <v>1</v>
       </c>
+      <c r="AA13" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1572,8 +1678,11 @@
       <c r="Z14" s="4">
         <v>12</v>
       </c>
+      <c r="AA14" s="4">
+        <v>12</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -1652,8 +1761,11 @@
       <c r="Z15" s="6">
         <v>1</v>
       </c>
+      <c r="AA15" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1732,8 +1844,11 @@
       <c r="Z16" s="4">
         <v>14</v>
       </c>
+      <c r="AA16" s="4">
+        <v>14</v>
+      </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1812,8 +1927,11 @@
       <c r="Z17" s="6">
         <v>1</v>
       </c>
+      <c r="AA17" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -1892,8 +2010,11 @@
       <c r="Z18" s="4">
         <v>1</v>
       </c>
+      <c r="AA18" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -1972,8 +2093,11 @@
       <c r="Z19" s="6">
         <v>1</v>
       </c>
+      <c r="AA19" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -2052,8 +2176,11 @@
       <c r="Z20" s="4">
         <v>18</v>
       </c>
+      <c r="AA20" s="4">
+        <v>18</v>
+      </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -2130,6 +2257,175 @@
         <v>1</v>
       </c>
       <c r="Z21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="11">
+        <v>20</v>
+      </c>
+      <c r="C22" s="9">
+        <v>20</v>
+      </c>
+      <c r="D22" s="9">
+        <v>20</v>
+      </c>
+      <c r="E22" s="9">
+        <v>20</v>
+      </c>
+      <c r="F22" s="9">
+        <v>20</v>
+      </c>
+      <c r="G22" s="9">
+        <v>20</v>
+      </c>
+      <c r="H22" s="9">
+        <v>20</v>
+      </c>
+      <c r="I22" s="9">
+        <v>20</v>
+      </c>
+      <c r="J22" s="9">
+        <v>20</v>
+      </c>
+      <c r="K22" s="9">
+        <v>20</v>
+      </c>
+      <c r="L22" s="9">
+        <v>20</v>
+      </c>
+      <c r="M22" s="9">
+        <v>20</v>
+      </c>
+      <c r="N22" s="9">
+        <v>20</v>
+      </c>
+      <c r="O22" s="9">
+        <v>20</v>
+      </c>
+      <c r="P22" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>20</v>
+      </c>
+      <c r="R22" s="9">
+        <v>20</v>
+      </c>
+      <c r="S22" s="9">
+        <v>20</v>
+      </c>
+      <c r="T22" s="9">
+        <v>20</v>
+      </c>
+      <c r="U22" s="9">
+        <v>20</v>
+      </c>
+      <c r="V22" s="9">
+        <v>20</v>
+      </c>
+      <c r="W22" s="9">
+        <v>20</v>
+      </c>
+      <c r="X22" s="9">
+        <v>20</v>
+      </c>
+      <c r="Y22" s="9">
+        <v>20</v>
+      </c>
+      <c r="Z22" s="9">
+        <v>20</v>
+      </c>
+      <c r="AA22" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="10">
+        <v>21</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6">
+        <v>1</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1</v>
+      </c>
+      <c r="K23" s="6">
+        <v>1</v>
+      </c>
+      <c r="L23" s="6">
+        <v>1</v>
+      </c>
+      <c r="M23" s="6">
+        <v>1</v>
+      </c>
+      <c r="N23" s="6">
+        <v>1</v>
+      </c>
+      <c r="O23" s="6">
+        <v>1</v>
+      </c>
+      <c r="P23" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>1</v>
+      </c>
+      <c r="R23" s="6">
+        <v>1</v>
+      </c>
+      <c r="S23" s="6">
+        <v>1</v>
+      </c>
+      <c r="T23" s="6">
+        <v>1</v>
+      </c>
+      <c r="U23" s="6">
+        <v>1</v>
+      </c>
+      <c r="V23" s="6">
+        <v>1</v>
+      </c>
+      <c r="W23" s="6">
+        <v>1</v>
+      </c>
+      <c r="X23" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="6">
         <v>1</v>
       </c>
     </row>
